--- a/output/timetable_all_departments.xlsx
+++ b/output/timetable_all_departments.xlsx
@@ -83,8 +83,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F72585"/>
-        <bgColor rgb="00F72585"/>
+        <fgColor rgb="0045B7D1"/>
+        <bgColor rgb="0045B7D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005D5FEF"/>
+        <bgColor rgb="005D5FEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -95,8 +101,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0045B7D1"/>
-        <bgColor rgb="0045B7D1"/>
+        <fgColor rgb="004ECDC4"/>
+        <bgColor rgb="004ECDC4"/>
       </patternFill>
     </fill>
     <fill>
@@ -113,14 +119,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005D5FEF"/>
-        <bgColor rgb="005D5FEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004ECDC4"/>
-        <bgColor rgb="004ECDC4"/>
+        <fgColor rgb="00F72585"/>
+        <bgColor rgb="00F72585"/>
       </patternFill>
     </fill>
     <fill>
@@ -137,14 +137,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0087CEFA"/>
         <bgColor rgb="0087CEFA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD700"/>
-        <bgColor rgb="00FFD700"/>
+        <fgColor rgb="004361EE"/>
+        <bgColor rgb="004361EE"/>
       </patternFill>
     </fill>
     <fill>
@@ -157,12 +163,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="004CC9F0"/>
         <bgColor rgb="004CC9F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004361EE"/>
-        <bgColor rgb="004361EE"/>
       </patternFill>
     </fill>
     <fill>
@@ -222,7 +222,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="00B0B0B0"/>
+      </right>
       <top style="thin">
         <color rgb="00B0B0B0"/>
       </top>
@@ -233,9 +235,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="00B0B0B0"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="00B0B0B0"/>
       </top>
@@ -257,16 +257,18 @@
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -276,9 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -308,37 +308,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -350,20 +353,17 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -763,7 +763,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>2025-10-18 22:22:02</t>
+          <t>2025-10-23 14:20:05</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
@@ -1143,90 +1143,90 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>- TUT
+room no. :C202
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="5" t="inlineStr"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C203
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr Prakash Pawar (L106)</t>
+        </is>
+      </c>
+      <c r="L2" s="11" t="n"/>
+      <c r="M2" s="11" t="n"/>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C203
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="Q2" s="11" t="n"/>
+      <c r="R2" s="7" t="n"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C201
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>- LEC
 room no. :C202
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C203
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>- LAB
-room no. :L306+L307
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="11" t="inlineStr"/>
-      <c r="Q2" s="11" t="inlineStr"/>
-      <c r="R2" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C202
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C104
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C204
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
+      <c r="G3" s="11" t="n"/>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="8" t="inlineStr">
         <is>
@@ -1238,27 +1238,27 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="K3" s="41" t="inlineStr">
-        <is>
-          <t>B4 Courses
-B4-NEW
-B4-NEW: Dr. Sandesh P (L108)</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
+      <c r="K3" s="12" t="inlineStr">
+        <is>
+          <t>- LAB
+room no. :L206+L207
+Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="L3" s="11" t="n"/>
+      <c r="M3" s="11" t="n"/>
       <c r="N3" s="7" t="n"/>
-      <c r="O3" s="14" t="inlineStr">
+      <c r="O3" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-NEW
-B1-NEW: Dr Jagadeesha Bhat (L206)</t>
-        </is>
-      </c>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
+B1-NEW: Dr Jagadeesha Bhat (L208)</t>
+        </is>
+      </c>
+      <c r="P3" s="11" t="n"/>
+      <c r="Q3" s="11" t="n"/>
       <c r="R3" s="7" t="n"/>
-      <c r="S3" s="10" t="inlineStr">
+      <c r="S3" s="12" t="inlineStr">
         <is>
           <t>- TUT
 room no. :C104
@@ -1273,28 +1273,28 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>- LEC
-room no. :C104
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
+room no. :C201
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
       <c r="D4" s="7" t="n"/>
       <c r="E4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>- TUT
-room no. :C202
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C203
+Dr. Rajesh N S</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n"/>
       <c r="H4" s="7" t="n"/>
       <c r="I4" s="8" t="inlineStr">
         <is>
@@ -1306,28 +1306,28 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="K4" s="10" t="inlineStr">
+      <c r="K4" s="12" t="inlineStr">
         <is>
           <t>- LAB
-room no. :L108+L107
+room no. :L306+L307
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
       <c r="N4" s="7" t="n"/>
-      <c r="O4" s="41" t="inlineStr">
-        <is>
-          <t>B4 Courses
-B4-NEW
-B4-NEW: Dr. Shirshendu L (L107)</t>
-        </is>
-      </c>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="6" t="n"/>
+      <c r="O4" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr. Aswath Babu &amp; Pof. Ravi Shankar (L107)</t>
+        </is>
+      </c>
+      <c r="P4" s="11" t="n"/>
+      <c r="Q4" s="11" t="n"/>
       <c r="R4" s="7" t="n"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -1335,28 +1335,28 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr"/>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>- TUT
-room no. :C201
+room no. :C203
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C203
 Dr. Dibyajyothi Guha</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C201
-Dr. Rajesh N S</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
+      <c r="G5" s="11" t="n"/>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="8" t="inlineStr">
         <is>
@@ -1368,90 +1368,90 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C201
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="7" t="n"/>
-      <c r="N5" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-NEW
-B3-NEW: Dr Prakash Pawar (L106)</t>
-        </is>
-      </c>
-      <c r="O5" s="6" t="n"/>
-      <c r="P5" s="6" t="n"/>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="11" t="inlineStr"/>
-      <c r="S5" s="11" t="inlineStr"/>
-      <c r="T5" s="11" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C202
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C201
-Dr. Rajesh N S</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="31" t="inlineStr">
+      <c r="K5" s="32" t="inlineStr">
         <is>
           <t>B3 Courses
 B3-NEW
 B3-NEW: Dr. Abdul Wahid (L108)</t>
         </is>
       </c>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="6" t="n"/>
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C203
+Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="P5" s="11" t="n"/>
+      <c r="Q5" s="7" t="n"/>
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C201
+Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C202
+Dr. Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="31" t="inlineStr">
+        <is>
+          <t>B4 Courses
+B4-NEW
+B4-NEW: Dr. Shirshendu L (L208)</t>
+        </is>
+      </c>
+      <c r="L6" s="11" t="n"/>
+      <c r="M6" s="11" t="n"/>
       <c r="N6" s="7" t="n"/>
       <c r="O6" s="31" t="inlineStr">
         <is>
-          <t>B3 Courses
-B3-NEW
-B3-NEW: Dr. Abdul Wahid (L108)</t>
-        </is>
-      </c>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="6" t="n"/>
+          <t>B4 Courses
+B4-NEW
+B4-NEW: Dr. Shirshendu L (L208)</t>
+        </is>
+      </c>
+      <c r="P6" s="11" t="n"/>
+      <c r="Q6" s="11" t="n"/>
       <c r="R6" s="7" t="n"/>
-      <c r="S6" s="11" t="inlineStr"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
@@ -1495,17 +1495,17 @@
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B14" s="19" t="inlineStr">
         <is>
-          <t>Computer Intensive Statistical Methods</t>
+          <t>Concurrency and Computation</t>
         </is>
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr Pramod Y</t>
         </is>
       </c>
       <c r="D14" s="19" t="inlineStr">
@@ -1518,29 +1518,29 @@
       </c>
       <c r="F14" s="19" t="inlineStr">
         <is>
-          <t>Could not find compatible 2.0 hour timeslot for B2-NEW LAB with faculty Dr Ramesh Athe</t>
+          <t>Could not find compatible 2.0 hour timeslot for B1-NEW LAB with faculty Dr Pramod Y</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B15" s="19" t="inlineStr">
         <is>
-          <t>Concurrency and Computation</t>
+          <t>English Language and Communication</t>
         </is>
       </c>
       <c r="C15" s="19" t="inlineStr">
         <is>
-          <t>Dr Pramod Y</t>
+          <t>Dr. Rajesh N S</t>
         </is>
       </c>
       <c r="D15" s="19" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E15" s="19" t="n">
@@ -1548,24 +1548,24 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>Could not find compatible 2.0 hour timeslot for B1-NEW LAB with faculty Dr Pramod Y</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
         <is>
-          <t>B1-HS151</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B16" s="19" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t>Computer Intensive Statistical Methods</t>
         </is>
       </c>
       <c r="C16" s="19" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="D16" s="19" t="inlineStr">
@@ -1578,29 +1578,29 @@
       </c>
       <c r="F16" s="19" t="inlineStr">
         <is>
-          <t>Could not find compatible 2.0 hour timeslot for B1-HS151 LAB with faculty Dr. Siddharth</t>
+          <t>Could not find compatible 2.0 hour timeslot for B2-NEW LAB with faculty Dr Ramesh Athe</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>B1-HS151</t>
         </is>
       </c>
       <c r="B17" s="19" t="inlineStr">
         <is>
-          <t>Network Analysis</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="C17" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E17" s="19" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F17" s="19" t="inlineStr">
         <is>
-          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
+          <t>Could not find compatible 2.0 hour timeslot for B1-HS151 LAB with faculty Dr. Siddharth</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
           <t>B3-NEW</t>
         </is>
       </c>
-      <c r="B24" s="32" t="inlineStr"/>
+      <c r="B24" s="33" t="inlineStr"/>
       <c r="C24" s="22" t="inlineStr">
         <is>
           <t>Data Science with Python</t>
@@ -1698,7 +1698,7 @@
           <t>B4-NEW</t>
         </is>
       </c>
-      <c r="B25" s="33" t="inlineStr"/>
+      <c r="B25" s="34" t="inlineStr"/>
       <c r="C25" s="22" t="inlineStr">
         <is>
           <t>Linux for Engineers</t>
@@ -1809,27 +1809,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1979,297 +1979,297 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr"/>
-      <c r="C2" s="16" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr"/>
+      <c r="C2" s="5" t="inlineStr"/>
+      <c r="D2" s="5" t="inlineStr"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="G2" s="16" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C205
+Dr. Jolly Thomas IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>HS204 TUT
+room no. :C201
+Dr. Anushree Kini</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="n"/>
+      <c r="N2" s="13" t="inlineStr">
         <is>
           <t>EC204 TUT
 room no. :C203
 Dr. Somen Bhattacharjee</t>
         </is>
       </c>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="10" t="inlineStr">
+        <is>
+          <t>EC310 TUT
+room no. :C204
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="R2" s="7" t="n"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>HS204 LEC
+room no. :C203
+Dr. Anushree Kini</t>
+        </is>
+      </c>
+      <c r="H3" s="11" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="16" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C202
+Dr. Jolly Thomas IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="N3" s="11" t="n"/>
+      <c r="O3" s="7" t="n"/>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="13" t="inlineStr">
+        <is>
+          <t>EC204 LEC
+room no. :C201
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="R3" s="11" t="n"/>
+      <c r="S3" s="7" t="n"/>
+      <c r="T3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>MA208 LEC
+room no. :C202
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>MA208 TUT
 room no. :C204
 Dr. Rajib Sharma</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="11" t="inlineStr"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="12" t="inlineStr">
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="12" t="inlineStr">
+        <is>
+          <t>EC205 LEC
+room no. :C104
+Dr. Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="N4" s="11" t="n"/>
+      <c r="O4" s="7" t="n"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="10" t="inlineStr">
+        <is>
+          <t>EC310 LEC
+room no. :C202
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>HS204 LEC
+room no. :C204
+Dr. Anushree Kini</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
+        <is>
+          <t>MA208 LEC
 room no. :C202
-Dr. Anushree Kini</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>MA208 TUT
-room no. :C203
 Dr. Rajib Sharma</t>
         </is>
       </c>
-      <c r="Q2" s="7" t="n"/>
-      <c r="R2" s="10" t="inlineStr">
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="10" t="inlineStr">
+        <is>
+          <t>EC310 LEC
+room no. :C205
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>EC205 LEC
-room no. :C203
+room no. :C202
 Dr. Pankaj Kumar</t>
         </is>
       </c>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>EC204 LEC
-room no. :C202
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="11" t="inlineStr"/>
-      <c r="H3" s="11" t="inlineStr"/>
-      <c r="I3" s="11" t="inlineStr"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="12" t="inlineStr">
-        <is>
-          <t>HS204 LEC
-room no. :C202
-Dr. Anushree Kini</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="7" t="n"/>
-      <c r="O3" s="11" t="inlineStr"/>
-      <c r="P3" s="11" t="inlineStr"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="15" t="inlineStr">
-        <is>
-          <t>EC310 TUT
-room no. :C201
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="S3" s="7" t="n"/>
-      <c r="T3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C201
-Dr. Jolly Thomas IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>EC205 LAB
 room no. :H109
 Dr. Pankaj Kumar</t>
         </is>
       </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="16" t="inlineStr">
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="13" t="inlineStr">
+        <is>
+          <t>EC204 LEC
+room no. :C201
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="O6" s="11" t="n"/>
+      <c r="P6" s="7" t="n"/>
+      <c r="Q6" s="13" t="inlineStr">
         <is>
           <t>EC204 LAB
 room no. :H109
 Dr. Somen Bhattacharjee</t>
         </is>
       </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="6" t="n"/>
-      <c r="O4" s="7" t="n"/>
-      <c r="P4" s="11" t="inlineStr"/>
-      <c r="Q4" s="11" t="inlineStr"/>
-      <c r="R4" s="9" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C203
-Dr. Jolly Thomas IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="inlineStr">
-        <is>
-          <t>EC310 LEC
-room no. :C202
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>EC205 LEC
-room no. :C202
-Dr. Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="11" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="11" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>MA208 LEC
-room no. :C202
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="7" t="n"/>
-      <c r="P5" s="11" t="inlineStr"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="12" t="inlineStr">
-        <is>
-          <t>HS204 TUT
-room no. :C204
-Dr. Anushree Kini</t>
-        </is>
-      </c>
-      <c r="S5" s="7" t="n"/>
-      <c r="T5" s="11" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr"/>
-      <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="11" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr"/>
-      <c r="G6" s="16" t="inlineStr">
-        <is>
-          <t>EC204 LEC
-room no. :C202
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="11" t="inlineStr"/>
-      <c r="M6" s="11" t="inlineStr"/>
-      <c r="N6" s="11" t="inlineStr"/>
-      <c r="O6" s="15" t="inlineStr">
-        <is>
-          <t>EC310 LEC
-room no. :C203
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="7" t="n"/>
-      <c r="R6" s="11" t="inlineStr"/>
-      <c r="S6" s="11" t="inlineStr"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="R6" s="11" t="n"/>
+      <c r="S6" s="11" t="n"/>
+      <c r="T6" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
@@ -2445,24 +2445,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="R4:T4"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2474,7 +2474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2612,345 +2612,341 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> B4-DS351 LEC
 room no. :L106
 Dr. Ramesh Athe</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
+      <c r="C2" s="11" t="n"/>
       <c r="D2" s="7" t="n"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="15" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>B3 LEC
+room no. :L108
+Dr. Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464, B1-NEW
+B1-CS464: Dr. Chinmayanand (L303)
+B1-NEW: Prof. SRM Prasanna (L402)</t>
+        </is>
+      </c>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="10" t="inlineStr">
+        <is>
+          <t>B3 LEC
+room no. :L108
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="P2" s="11" t="n"/>
+      <c r="Q2" s="7" t="n"/>
+      <c r="R2" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464, B1-NEW
+B1-CS464: Dr. Chinmayanand (L303)
+B1-NEW: Prof. SRM Prasanna (L402)</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B4-DS351 LEC
+room no. :L106
+Dr. Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B4 TUT
+room no. :L108
+Dr. Sunil C K </t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B4-DS351 TUT
+room no. :L108
+Dr. Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="12" t="inlineStr">
+        <is>
+          <t>B4 LEC
+room no. :H109
+Dr. Girish G N</t>
+        </is>
+      </c>
+      <c r="N3" s="11" t="n"/>
+      <c r="O3" s="7" t="n"/>
+      <c r="P3" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-EC361
+B2-EC361: Dr. Jagadeesha R Bhat (L304)</t>
+        </is>
+      </c>
+      <c r="Q3" s="7" t="n"/>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>B2 LEC
+room no. :H109
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="S3" s="11" t="n"/>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>B3 TUT
 room no. :L106
 Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="11" t="inlineStr"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="11" t="inlineStr"/>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>B4 LAB
+room no. :L108
+Dr. Girish G N</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="11" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-CS307
+B3-CS307: Dr. Deepak K T (L301)</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="n"/>
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>B2 LEC
 room no. :L108
 Dr. Pavan</t>
         </is>
       </c>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="7" t="n"/>
-      <c r="P2" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-CS307
-B3-CS307: Dr. Deepak K T (L301)</t>
-        </is>
-      </c>
-      <c r="Q2" s="7" t="n"/>
-      <c r="R2" s="10" t="inlineStr">
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="7" t="n"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B4 LEC
+room no. :L108
+Dr. Sunil C K </t>
+        </is>
+      </c>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">B4 LEC
 room no. :L106
 Dr. Sunil C K </t>
         </is>
       </c>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr"/>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B4 TUT
-room no. :L106
-Dr. Sunil C K </t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-EC361
-B2-EC361: Dr. Jagadeesha R Bhat (L303)</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B4-DS351 TUT
-room no. :C104
-Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="11" t="inlineStr"/>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>B4 LEC
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+room no. :C204
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="10" t="inlineStr">
+        <is>
+          <t>B3 TUT
 room no. :H109
-Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="11" t="inlineStr"/>
-      <c r="Q3" s="15" t="inlineStr">
-        <is>
-          <t>B3 TUT
-room no. :C104
+Dr. Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="10" t="inlineStr">
+        <is>
+          <t>B3 LEC
+room no. :L107
 Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
         </is>
       </c>
-      <c r="R3" s="7" t="n"/>
-      <c r="S3" s="14" t="inlineStr">
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-CS458
-B1-CS458: Dr. Krishnendu (L305)</t>
-        </is>
-      </c>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="inlineStr">
+B1-CS458: Dr. Krishnendu (L401)</t>
+        </is>
+      </c>
+      <c r="T5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>B2 LEC
+room no. :L106
+Dr. Aswath B</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>B3 LEC
 room no. :L106
 Dr. Vivekraj V K</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="15" t="inlineStr">
-        <is>
-          <t>B3 LEC
-room no. :L108
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="15" t="inlineStr">
-        <is>
-          <t>B3 TUT
-room no. :C104
-Dr. Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="11" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>B2 LEC
-room no. :L108
-Dr. Aswath B</t>
-        </is>
-      </c>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="11" t="inlineStr"/>
-      <c r="S4" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464
-B1-CS464: Dr. Chinmayanand (L302)</t>
-        </is>
-      </c>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="13" t="inlineStr">
         <is>
           <t>CS307 LEC
-room no. :C203
+room no. :C202
 Dr. Rajib Sharma</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>B2 LEC
-room no. :L108
-Dr. Aswath B</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="11" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-NEW
-B1-NEW: Prof. SRM Prasanna (L403)</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="n"/>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="N6" s="11" t="n"/>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="6" t="inlineStr">
         <is>
           <t>B2 LEC
 room no. :L107
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="O5" s="6" t="n"/>
-      <c r="P5" s="7" t="n"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="15" t="inlineStr">
-        <is>
-          <t>B3 LEC
-room no. :L106
-Dr. Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="S5" s="6" t="n"/>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B4 LEC
-room no. :L106
-Dr. Sunil C K </t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>B4 LAB
-room no. :L108
-Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-NEW
-B2-NEW: Dr. Sandesh P (L401)</t>
-        </is>
-      </c>
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="16" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-room no. :C201
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="7" t="n"/>
-      <c r="Q6" s="11" t="inlineStr"/>
-      <c r="R6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B4-DS351 LEC
-room no. :H109
-Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="S6" s="6" t="n"/>
-      <c r="T6" s="7" t="n"/>
+Dr. Aswath B</t>
+        </is>
+      </c>
+      <c r="R6" s="11" t="n"/>
+      <c r="S6" s="7" t="n"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3035,17 +3031,17 @@
     <row r="19">
       <c r="A19" s="19" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1-CS464</t>
         </is>
       </c>
       <c r="B19" s="19" t="inlineStr">
         <is>
-          <t>Quantum HPC and AI</t>
+          <t xml:space="preserve">Deep Learning for Computer Vision </t>
         </is>
       </c>
       <c r="C19" s="19" t="inlineStr">
         <is>
-          <t>Dr. Manish M (Dr. Aswath)</t>
+          <t>Dr. Chinmayanand</t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
@@ -3065,17 +3061,17 @@
     <row r="20">
       <c r="A20" s="19" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B20" s="19" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="C20" s="19" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D20" s="19" t="inlineStr">
@@ -3095,17 +3091,17 @@
     <row r="21">
       <c r="A21" s="19" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B3-CS307</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
         <is>
-          <t>Large Languange Models</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
+          <t>Dr. Deepak K T</t>
         </is>
       </c>
       <c r="D21" s="19" t="inlineStr">
@@ -3125,17 +3121,17 @@
     <row r="22">
       <c r="A22" s="19" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B2-CS455</t>
         </is>
       </c>
       <c r="B22" s="19" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Blockchain Technology</t>
         </is>
       </c>
       <c r="C22" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
@@ -3155,17 +3151,17 @@
     <row r="23">
       <c r="A23" s="19" t="inlineStr">
         <is>
-          <t>B1-CS464</t>
+          <t>B1-CS458</t>
         </is>
       </c>
       <c r="B23" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deep Learning for Computer Vision </t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="C23" s="19" t="inlineStr">
         <is>
-          <t>Dr. Chinmayanand</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="D23" s="19" t="inlineStr">
@@ -3185,22 +3181,22 @@
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
         <is>
-          <t>B2-CS455</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B24" s="19" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="C24" s="19" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D24" s="19" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>TUT</t>
         </is>
       </c>
       <c r="E24" s="19" t="n">
@@ -3215,17 +3211,17 @@
     <row r="25">
       <c r="A25" s="19" t="inlineStr">
         <is>
-          <t>B1-CS458</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B25" s="19" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Quantum HPC and AI</t>
         </is>
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Manish M (Dr. Aswath)</t>
         </is>
       </c>
       <c r="D25" s="19" t="inlineStr">
@@ -3245,17 +3241,17 @@
     <row r="26">
       <c r="A26" s="19" t="inlineStr">
         <is>
-          <t>B3-CS307</t>
+          <t>B2-EC361</t>
         </is>
       </c>
       <c r="B26" s="19" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t>Dr. Deepak K T</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="D26" s="19" t="inlineStr">
@@ -3272,101 +3268,108 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="20" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="19" t="inlineStr">
+        <is>
+          <t>B1-NEW</t>
+        </is>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Large Languange Models</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Dr. Sunil S</t>
+        </is>
+      </c>
+      <c r="D27" s="19" t="inlineStr">
+        <is>
+          <t>LEC</t>
+        </is>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19" t="inlineStr">
+        <is>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="21" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="21" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B31" s="21" t="inlineStr">
+      <c r="B32" s="21" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="C31" s="21" t="inlineStr">
+      <c r="C32" s="21" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="D31" s="21" t="inlineStr">
+      <c r="D32" s="21" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="E31" s="21" t="inlineStr">
+      <c r="E32" s="21" t="inlineStr">
         <is>
           <t>LTPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="22" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="B32" s="23" t="inlineStr"/>
-      <c r="C32" s="22" t="inlineStr">
-        <is>
-          <t>Medical Image Analysis</t>
-        </is>
-      </c>
-      <c r="D32" s="22" t="inlineStr">
-        <is>
-          <t>Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="E32" s="22" t="inlineStr">
-        <is>
-          <t>2-0-2-4</t>
         </is>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B33" s="24" t="inlineStr"/>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B33" s="23" t="inlineStr"/>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Wireless Communication</t>
+          <t>Medical Image Analysis</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>Dr. Rajib Sharma/ Dr. Rao (Lab)</t>
+          <t>Dr. Girish G N</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>2-0-2-4</t>
         </is>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="B34" s="25" t="inlineStr"/>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B34" s="24" t="inlineStr"/>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Model Checking</t>
+          <t>Wireless Communication</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Rajib Sharma/ Dr. Rao (Lab)</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
@@ -3378,41 +3381,41 @@
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="B35" s="26" t="inlineStr"/>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B35" s="25" t="inlineStr"/>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Automotive Embedded and Multimedia Systems/Microwave Engineering/Computer Graphics/Machine learning/Virtualization and Cloud Computing</t>
+          <t>Model Checking</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)/Dr. Somen/Dr. Vivekraj V K/Dr. Deepak KT/Dr Malay</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> B4-DS351</t>
-        </is>
-      </c>
-      <c r="B36" s="27" t="inlineStr"/>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B36" s="26" t="inlineStr"/>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Statistics for Health Technology</t>
+          <t>Automotive Embedded and Multimedia Systems/Microwave Engineering/Computer Graphics/Machine learning/Virtualization and Cloud Computing</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)/Dr. Somen/Dr. Vivekraj V K/Dr. Deepak KT/Dr Malay</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -3424,18 +3427,18 @@
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>B1-CS464</t>
-        </is>
-      </c>
-      <c r="B37" s="29" t="inlineStr"/>
+          <t xml:space="preserve"> B4-DS351</t>
+        </is>
+      </c>
+      <c r="B37" s="27" t="inlineStr"/>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deep Learning for Computer Vision </t>
+          <t>Statistics for Health Technology</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>Dr. Chinmayanand</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -3447,41 +3450,41 @@
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS464</t>
         </is>
       </c>
       <c r="B38" s="29" t="inlineStr"/>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Large Languange Models</t>
+          <t xml:space="preserve">Deep Learning for Computer Vision </t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
+          <t>Dr. Chinmayanand</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>B2-CS455</t>
-        </is>
-      </c>
-      <c r="B39" s="30" t="inlineStr"/>
+          <t>B1-NEW</t>
+        </is>
+      </c>
+      <c r="B39" s="29" t="inlineStr"/>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Large Languange Models</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Sunil S</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -3493,41 +3496,41 @@
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B2-CS455</t>
         </is>
       </c>
       <c r="B40" s="30" t="inlineStr"/>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t>Blockchain Technology</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>B1-CS458</t>
-        </is>
-      </c>
-      <c r="B41" s="29" t="inlineStr"/>
+          <t>B2-EC361</t>
+        </is>
+      </c>
+      <c r="B41" s="30" t="inlineStr"/>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
@@ -3539,18 +3542,18 @@
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
-        </is>
-      </c>
-      <c r="B42" s="30" t="inlineStr"/>
+          <t>B1-CS458</t>
+        </is>
+      </c>
+      <c r="B42" s="29" t="inlineStr"/>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
@@ -3562,18 +3565,18 @@
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>B3-CS307</t>
-        </is>
-      </c>
-      <c r="B43" s="32" t="inlineStr"/>
+          <t>B2-NEW</t>
+        </is>
+      </c>
+      <c r="B43" s="30" t="inlineStr"/>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Dr. Deepak K T</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -3585,54 +3588,76 @@
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="22" t="inlineStr">
         <is>
+          <t>B3-CS307</t>
+        </is>
+      </c>
+      <c r="B44" s="33" t="inlineStr"/>
+      <c r="C44" s="22" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>Dr. Deepak K T</t>
+        </is>
+      </c>
+      <c r="E44" s="22" t="inlineStr">
+        <is>
+          <t>3-1-0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="22" t="inlineStr">
+        <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="B44" s="42" t="inlineStr"/>
-      <c r="C44" s="22" t="inlineStr">
+      <c r="B45" s="42" t="inlineStr"/>
+      <c r="C45" s="22" t="inlineStr">
         <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="D44" s="22" t="inlineStr">
+      <c r="D45" s="22" t="inlineStr">
         <is>
           <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
-      <c r="E44" s="22" t="inlineStr">
+      <c r="E45" s="22" t="inlineStr">
         <is>
           <t>0-0-0-8</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="S3:T3"/>
+  <mergeCells count="25">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3782,18 +3807,18 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr"/>
-      <c r="C2" s="11" t="inlineStr"/>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="B2" s="5" t="inlineStr"/>
+      <c r="C2" s="5" t="inlineStr"/>
+      <c r="D2" s="5" t="inlineStr"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="G2" s="11" t="inlineStr"/>
-      <c r="H2" s="11" t="inlineStr"/>
-      <c r="I2" s="11" t="inlineStr"/>
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="G2" s="5" t="inlineStr"/>
+      <c r="H2" s="5" t="inlineStr"/>
+      <c r="I2" s="5" t="inlineStr"/>
       <c r="J2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3804,15 +3829,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="11" t="inlineStr"/>
-      <c r="M2" s="11" t="inlineStr"/>
-      <c r="N2" s="11" t="inlineStr"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="11" t="inlineStr"/>
-      <c r="Q2" s="11" t="inlineStr"/>
-      <c r="R2" s="11" t="inlineStr"/>
-      <c r="S2" s="11" t="inlineStr"/>
-      <c r="T2" s="11" t="inlineStr"/>
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -3820,18 +3845,18 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr"/>
-      <c r="C3" s="11" t="inlineStr"/>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
       <c r="E3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="11" t="inlineStr"/>
-      <c r="H3" s="11" t="inlineStr"/>
-      <c r="I3" s="11" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
       <c r="J3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3842,15 +3867,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr"/>
-      <c r="M3" s="11" t="inlineStr"/>
-      <c r="N3" s="11" t="inlineStr"/>
-      <c r="O3" s="11" t="inlineStr"/>
-      <c r="P3" s="11" t="inlineStr"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="11" t="inlineStr"/>
-      <c r="S3" s="11" t="inlineStr"/>
-      <c r="T3" s="11" t="inlineStr"/>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="inlineStr"/>
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -3858,18 +3883,18 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr"/>
-      <c r="C4" s="11" t="inlineStr"/>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
       <c r="E4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="11" t="inlineStr"/>
-      <c r="H4" s="11" t="inlineStr"/>
-      <c r="I4" s="11" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
       <c r="J4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3880,15 +3905,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="11" t="inlineStr"/>
-      <c r="M4" s="11" t="inlineStr"/>
-      <c r="N4" s="11" t="inlineStr"/>
-      <c r="O4" s="11" t="inlineStr"/>
-      <c r="P4" s="11" t="inlineStr"/>
-      <c r="Q4" s="11" t="inlineStr"/>
-      <c r="R4" s="11" t="inlineStr"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -3896,18 +3921,18 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr"/>
-      <c r="C5" s="11" t="inlineStr"/>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr"/>
-      <c r="G5" s="11" t="inlineStr"/>
-      <c r="H5" s="11" t="inlineStr"/>
-      <c r="I5" s="11" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3918,15 +3943,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr"/>
-      <c r="M5" s="11" t="inlineStr"/>
-      <c r="N5" s="11" t="inlineStr"/>
-      <c r="O5" s="11" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="11" t="inlineStr"/>
-      <c r="S5" s="11" t="inlineStr"/>
-      <c r="T5" s="11" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -3934,18 +3959,18 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr"/>
-      <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr"/>
-      <c r="G6" s="11" t="inlineStr"/>
-      <c r="H6" s="11" t="inlineStr"/>
-      <c r="I6" s="11" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3956,15 +3981,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="11" t="inlineStr"/>
-      <c r="M6" s="11" t="inlineStr"/>
-      <c r="N6" s="11" t="inlineStr"/>
-      <c r="O6" s="11" t="inlineStr"/>
-      <c r="P6" s="11" t="inlineStr"/>
-      <c r="Q6" s="11" t="inlineStr"/>
-      <c r="R6" s="11" t="inlineStr"/>
-      <c r="S6" s="11" t="inlineStr"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4213,304 +4238,304 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr"/>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>CS162 TUT
+room no. :C101
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="G2" s="9" t="inlineStr">
+        <is>
+          <t>HS204  TUT
+room no. :C101
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr"/>
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="10" t="inlineStr">
+        <is>
+          <t>CS165 LEC
+room no. :C101
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="N2" s="11" t="n"/>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="12" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+room no. :C101
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="R2" s="11" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>CS162 LEC
 room no. :C101
 Dr. Dibyajyothi</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr"/>
+      <c r="L3" s="13" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C101
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="13" t="inlineStr">
+        <is>
+          <t>CS164 LAB
+room no. :L106+L107
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="P3" s="11" t="n"/>
+      <c r="Q3" s="11" t="n"/>
+      <c r="R3" s="7" t="n"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CC101, B2-CISM101
+B2-CC101: Dr. Pramod Yelmewad (C202)
+B2-CISM101: Dr Ramesh Athe (C203)</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CC101, B2-CISM101
+B2-CC101: Dr. Pramod Yelmewad (C202)
+B2-CISM101: Dr Ramesh Athe (C203)</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="12" t="inlineStr">
+        <is>
+          <t>CS163 LAB
+room no. :L106+L107
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="7" t="n"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-IOT101
+B1-IOT101: Dr Jagadeesha Bhat (C201)</t>
+        </is>
+      </c>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="7" t="n"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>CS165 LEC
+room no. :C101
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="13" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C101
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="N5" s="11" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="12" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+room no. :C101
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="S5" s="11" t="n"/>
+      <c r="T5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>B0 Courses
 B0-HS153
 B0-HS153: Dr. Deepak KT (C102)</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LAB
-room no. :L106+L107
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="11" t="inlineStr"/>
-      <c r="Q2" s="12" t="inlineStr">
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-IIP101
+B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (C204)</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="16" t="inlineStr">
+        <is>
+          <t>B0 Courses
+B0-HS153
+B0-HS153: Dr. Deepak KT (C104)</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="n"/>
+      <c r="N6" s="6" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+room no. :C101
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="O6" s="11" t="n"/>
+      <c r="P6" s="7" t="n"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="9" t="inlineStr">
         <is>
           <t>HS204  LEC
 room no. :C101
 Dr. Anusree Kini</t>
         </is>
       </c>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="7" t="n"/>
-      <c r="T2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CC101, B2-IIP101
-B2-CC101: Dr. Pramod Yelmewad (C202)
-B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (C204)</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>B0 Courses
-B0-HS153
-B0-HS153: Dr. Deepak KT (C104)</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="11" t="inlineStr"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="11" t="inlineStr"/>
-      <c r="L3" s="11" t="inlineStr"/>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-room no. :C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="11" t="inlineStr"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CC101, B2-IIP101
-B2-CC101: Dr. Pramod Yelmewad (C202)
-B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (C204)</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CISM101
-B2-CISM101: Dr Ramesh Athe (C203)</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-IOT101
-B1-IOT101: Dr Jagadeesha Bhat (C201)</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="11" t="inlineStr"/>
-      <c r="L4" s="11" t="inlineStr"/>
-      <c r="M4" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C101
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="N4" s="6" t="n"/>
-      <c r="O4" s="7" t="n"/>
-      <c r="P4" s="11" t="inlineStr"/>
-      <c r="Q4" s="12" t="inlineStr">
-        <is>
-          <t>HS204  TUT
-room no. :C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="inlineStr">
-        <is>
-          <t>CS165 LEC
-room no. :C101
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="16" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C101
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="11" t="inlineStr"/>
-      <c r="L5" s="15" t="inlineStr">
-        <is>
-          <t>CS165 LEC
-room no. :C101
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="11" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="11" t="inlineStr"/>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>CS162 TUT
-room no. :C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr"/>
-      <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="11" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C101
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="11" t="inlineStr"/>
-      <c r="L6" s="11" t="inlineStr"/>
-      <c r="M6" s="11" t="inlineStr"/>
-      <c r="N6" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C101
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="7" t="n"/>
-      <c r="Q6" s="16" t="inlineStr">
-        <is>
-          <t>CS164 LAB
-room no. :L106+L107
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="R6" s="6" t="n"/>
-      <c r="S6" s="6" t="n"/>
+      <c r="S6" s="11" t="n"/>
       <c r="T6" s="7" t="n"/>
     </row>
     <row r="11">
@@ -4555,17 +4580,17 @@
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
         <is>
-          <t>B1-HS151</t>
+          <t>B1-ASD151</t>
         </is>
       </c>
       <c r="B14" s="19" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t>Introduction to Design</t>
         </is>
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D14" s="19" t="inlineStr">
@@ -4585,17 +4610,17 @@
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
         <is>
-          <t>B1-ASD151</t>
+          <t>B1-HS151</t>
         </is>
       </c>
       <c r="B15" s="19" t="inlineStr">
         <is>
-          <t>Introduction to Design</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="C15" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="D15" s="19" t="inlineStr">
@@ -4924,25 +4949,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="R5:T5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="P4:R4"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5092,23 +5117,29 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CC101
+B2-CC101: Dr. Pramod Yelmewad (L303)</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
         <is>
           <t>CS165 LEC
 room no. :C102
 Dr. Animesh Roy</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="G2" s="11" t="inlineStr"/>
-      <c r="H2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="7" t="n"/>
       <c r="I2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -5119,278 +5150,270 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="K2" s="11" t="inlineStr"/>
-      <c r="L2" s="12" t="inlineStr">
-        <is>
-          <t>HS204  TUT
-room no. :C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
+      <c r="K2" s="16" t="inlineStr">
+        <is>
+          <t>B0 Courses
+B0-HS153
+B0-HS153: Dr. Deepak KT (C205)</t>
+        </is>
+      </c>
+      <c r="L2" s="11" t="n"/>
       <c r="M2" s="7" t="n"/>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="6" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+room no. :C102
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="P2" s="11" t="n"/>
+      <c r="Q2" s="7" t="n"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-IOT101
+B1-IOT101: Dr Jagadeesha Bhat (L302)</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CISM101
+B2-CISM101: Dr Ramesh Athe (L304)</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr"/>
+      <c r="L3" s="13" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C102
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="13" t="inlineStr">
+        <is>
+          <t>CS164 LAB
+room no. :L206+L207
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="P3" s="11" t="n"/>
+      <c r="Q3" s="11" t="n"/>
+      <c r="R3" s="7" t="n"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>B0 Courses
+B0-HS153
+B0-HS153: Dr. Deepak KT (L301)</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>CS162 LEC
 room no. :C101
 Dr. Dibyajyothi</t>
         </is>
       </c>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="7" t="n"/>
-      <c r="Q2" s="11" t="inlineStr"/>
-      <c r="R2" s="11" t="inlineStr"/>
-      <c r="S2" s="11" t="inlineStr"/>
-      <c r="T2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-IOT101
-B1-IOT101: Dr Jagadeesha Bhat (L302)</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="15" t="inlineStr">
-        <is>
-          <t>CS165 LEC
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="7" t="n"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="12" t="inlineStr">
+        <is>
+          <t>CS163 LEC
 room no. :C101
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="10" t="inlineStr">
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="7" t="n"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>HS204  TUT
+room no. :C102
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-IIP101
+B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (L305)</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="12" t="inlineStr">
         <is>
           <t>CS163 LEC
 room no. :C102
 Dr. Suvadip Hazra</t>
         </is>
       </c>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="16" t="inlineStr">
-        <is>
-          <t>CS164 LAB
+      <c r="O5" s="11" t="n"/>
+      <c r="P5" s="7" t="n"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="10" t="inlineStr">
+        <is>
+          <t>CS165 LEC
+room no. :C102
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="S5" s="11" t="n"/>
+      <c r="T5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C101
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>HS204  LEC
+room no. :C101
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="12" t="inlineStr">
+        <is>
+          <t>CS163 LAB
 room no. :L106+L107
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="7" t="n"/>
-      <c r="R3" s="11" t="inlineStr"/>
-      <c r="S3" s="9" t="inlineStr">
-        <is>
-          <t>B0 Courses
-B0-HS153
-B0-HS153: Dr. Deepak KT (L301)</t>
-        </is>
-      </c>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CC101, B2-IIP101
-B2-CC101: Dr. Pramod Yelmewad (L303)
-B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (L305)</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="11" t="inlineStr"/>
-      <c r="H4" s="11" t="inlineStr"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CC101, B2-IIP101
-B2-CC101: Dr. Pramod Yelmewad (L303)
-B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (L305)</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="11" t="inlineStr"/>
-      <c r="O4" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C102
 Dr. Suvadip Hazra</t>
         </is>
       </c>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="L6" s="11" t="n"/>
+      <c r="M6" s="11" t="n"/>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>CS162 TUT
 room no. :C102
 Dr. Dibyajyothi</t>
         </is>
       </c>
-      <c r="S4" s="7" t="n"/>
-      <c r="T4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="16" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C102
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>B0 Courses
-B0-HS153
-B0-HS153: Dr. Deepak KT (C205)</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="16" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C102
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="7" t="n"/>
-      <c r="N5" s="11" t="inlineStr"/>
-      <c r="O5" s="12" t="inlineStr">
-        <is>
-          <t>HS204  LEC
-room no. :C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="P5" s="6" t="n"/>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="11" t="inlineStr"/>
-      <c r="S5" s="11" t="inlineStr"/>
-      <c r="T5" s="11" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr"/>
-      <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="11" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CISM101
-B2-CISM101: Dr Ramesh Athe (L304)</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LAB
-room no. :L106+L107
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="7" t="n"/>
-      <c r="O6" s="11" t="inlineStr"/>
-      <c r="P6" s="11" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-room no. :C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="R6" s="6" t="n"/>
       <c r="S6" s="7" t="n"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
@@ -5803,24 +5826,24 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="P4:R4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5971,235 +5994,247 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C104
-Dr. Jolly Thomas, IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="n"/>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>MA202 LEC
+room no. :C102
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
       <c r="D2" s="7" t="n"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="G2" s="11" t="inlineStr"/>
-      <c r="H2" s="16" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>CS204 LAB
+room no. :L106+L107
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="11" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>CS301 TUT
+room no. :C102
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="13" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+room no. :C104
+Dr. Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="R2" s="11" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>CS206 LEC
+room no. :C101
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+room no. :C102
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>MA202 TUT
+room no. :C104
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="10" t="inlineStr">
+        <is>
+          <t>CS206 TUT
+room no. :C101
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="Q3" s="7" t="n"/>
+      <c r="R3" s="12" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+room no. :C101
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="S3" s="11" t="n"/>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C101
+Dr. Jolly Thomas, IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>CS301 LEC
+room no. :C101
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="13" t="inlineStr">
+        <is>
+          <t>CS310 LAB
+room no. :L206+L207
+Dr. Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n"/>
+      <c r="O4" s="7" t="n"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="16" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C102
+Dr. Jolly Thomas, IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="7" t="n"/>
+      <c r="T4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>CS310 TUT
 room no. :C101
 Dr. Pramod Yelmewad</t>
         </is>
       </c>
-      <c r="I2" s="7" t="n"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="12" t="inlineStr">
-        <is>
-          <t>CS301 LEC
-room no. :C102
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="15" t="inlineStr">
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="10" t="inlineStr">
         <is>
           <t>CS206 LEC
-room no. :C102
+room no. :C104
 Dr. Pavan</t>
         </is>
       </c>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7" t="n"/>
-      <c r="S2" s="11" t="inlineStr"/>
-      <c r="T2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>CS206 LEC
-room no. :C101
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>CS204 LAB
-room no. :L106+L107
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="16" t="inlineStr">
+      <c r="N5" s="11" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="13" t="inlineStr">
         <is>
           <t>CS310 LEC
 room no. :C104
 Dr. Pramod Yelmewad</t>
         </is>
       </c>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="7" t="n"/>
-      <c r="O3" s="11" t="inlineStr"/>
-      <c r="P3" s="11" t="inlineStr"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="10" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-room no. :C101
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="16" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-room no. :C101
-Dr. Pramod Yelmewad</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C101
-Dr. Jolly Thomas, IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="11" t="inlineStr"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="11" t="inlineStr"/>
-      <c r="M4" s="11" t="inlineStr"/>
-      <c r="N4" s="12" t="inlineStr">
-        <is>
-          <t>CS301 TUT
-room no. :C104
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="O4" s="7" t="n"/>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>MA202 LEC
-room no. :C104
-Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr"/>
-      <c r="C5" s="11" t="inlineStr"/>
-      <c r="D5" s="11" t="inlineStr"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr"/>
-      <c r="G5" s="11" t="inlineStr"/>
-      <c r="H5" s="11" t="inlineStr"/>
-      <c r="I5" s="11" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-room no. :C104
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="11" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr"/>
-      <c r="Q5" s="15" t="inlineStr">
-        <is>
-          <t>CS206 TUT
-room no. :C102
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="R5" s="7" t="n"/>
-      <c r="S5" s="11" t="inlineStr"/>
-      <c r="T5" s="11" t="inlineStr"/>
+      <c r="R5" s="11" t="n"/>
+      <c r="S5" s="7" t="n"/>
+      <c r="T5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -6207,30 +6242,18 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>CS301 LEC
-room no. :C101
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t>CS310 LAB
-room no. :L106+L107
-Dr. Pramod Yelmewad</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -6241,27 +6264,27 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>MA202 LEC
 room no. :C102
 Dr. Anand Barangi</t>
         </is>
       </c>
-      <c r="M6" s="6" t="n"/>
+      <c r="M6" s="11" t="n"/>
       <c r="N6" s="7" t="n"/>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>MA202 TUT
-room no. :C102
-Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="P6" s="7" t="n"/>
-      <c r="Q6" s="11" t="inlineStr"/>
-      <c r="R6" s="11" t="inlineStr"/>
-      <c r="S6" s="11" t="inlineStr"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="9" t="inlineStr">
+        <is>
+          <t>CS301 LEC
+room no. :C104
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="R6" s="11" t="n"/>
+      <c r="S6" s="7" t="n"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
@@ -6437,24 +6460,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6604,349 +6627,343 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS471, B1-abc002, B1-abc003
+B1-CS471: Chinmayanand (L401)
+B1-abc002: Dr. Krishnendu (C202)
+B1-abc003: Prof. SRM Prasanna (L302)</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="G2" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS471, B1-abc002, B1-abc003
+B1-CS471: Chinmayanand (L401)
+B1-abc002: Dr. Krishnendu (C202)
+B1-abc003: Prof. SRM Prasanna (L302)</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="14" t="inlineStr">
         <is>
           <t>B2 Courses
 B2-abc005, B2-abc006
-B2-abc005: Dr. Rajendra H (L302)
-B2-abc006: Dr. Jagadeesha R Bhat (L305)</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="G2" s="13" t="inlineStr">
+B2-abc005: Dr. Rajendra H (L305)
+B2-abc006: Dr. Jagadeesha R Bhat (L404)</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="n"/>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="14" t="inlineStr">
         <is>
           <t>B2 Courses
 B2-abc005, B2-abc006
-B2-abc005: Dr. Rajendra H (L302)
-B2-abc006: Dr. Jagadeesha R Bhat (L305)</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="7" t="n"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="14" t="inlineStr">
+B2-abc005: Dr. Rajendra H (L305)
+B2-abc006: Dr. Jagadeesha R Bhat (L404)</t>
+        </is>
+      </c>
+      <c r="P2" s="7" t="n"/>
+      <c r="Q2" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS471, B1-abc001
+B1-CS471, B1-abc002, B1-abc003
 B1-CS471: Chinmayanand (L401)
-B1-abc001: Dr. Sunil S (L301)</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="14" t="inlineStr">
+B1-abc002: Dr. Krishnendu (C202)
+B1-abc003: Prof. SRM Prasanna (L302)</t>
+        </is>
+      </c>
+      <c r="R2" s="11" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-abc001
 B1-abc001: Dr. Sunil S (L403)</t>
         </is>
       </c>
-      <c r="P2" s="7" t="n"/>
-      <c r="Q2" s="11" t="inlineStr"/>
-      <c r="R2" s="14" t="inlineStr">
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS471, B1-abc001
-B1-CS471: Chinmayanand (L401)
-B1-abc001: Dr. Sunil S (L301)</t>
-        </is>
-      </c>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="14" t="inlineStr">
+B1-abc001
+B1-abc001: Dr. Sunil S (L404)</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc006
+B2-abc006: Dr. Jagadeesha R Bhat (L401)</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="31" t="inlineStr">
+        <is>
+          <t>B4 Courses
+B4-abc013
+B4-abc013: Dr. Sunil CK (L305)</t>
+        </is>
+      </c>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-abc001
+B1-abc001: Dr. Sunil S (L404)</t>
+        </is>
+      </c>
+      <c r="R3" s="11" t="n"/>
+      <c r="S3" s="7" t="n"/>
+      <c r="T3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc005
+B2-abc005: Dr. Rajendra H (L304)</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>CS307 LAB
+room no. :L106+L107
+Dr. Girish GN</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="11" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc010
+B2-abc010: Dr. Sandesh P (L403)</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="n"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-abc002
-B1-abc002: Dr. Krishnendu (C201)</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="10" t="inlineStr">
+B1-abc002: Dr. Krishnendu (C203)</t>
+        </is>
+      </c>
+      <c r="P4" s="11" t="n"/>
+      <c r="Q4" s="7" t="n"/>
+      <c r="R4" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-CS462
+B3-CS462: Dr. Vivekraj V K (L301)</t>
+        </is>
+      </c>
+      <c r="S4" s="7" t="n"/>
+      <c r="T4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc005
+B2-abc005: Dr. Rajendra H (L303)</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>CS307 LEC
 room no. :C102
 Dr. Girish GN</t>
         </is>
       </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="11" t="inlineStr"/>
-      <c r="M3" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc005
-B2-abc005: Dr. Rajendra H (L303)</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc010
-B2-abc010: Dr. Sandesh P (C203)</t>
-        </is>
-      </c>
-      <c r="Q3" s="7" t="n"/>
-      <c r="R3" s="14" t="inlineStr">
+      <c r="H5" s="11" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="12" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+room no. :C201
+Dr. Girish GN</t>
+        </is>
+      </c>
+      <c r="N5" s="11" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-abc012
+B3-abc012: Dr. Somen (C204)</t>
+        </is>
+      </c>
+      <c r="Q5" s="7" t="n"/>
+      <c r="R5" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-CS471
 B1-CS471: Chinmayanand (L403)</t>
         </is>
       </c>
-      <c r="S3" s="7" t="n"/>
-      <c r="T3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc007
-B2-abc007: Dr. Pavan (L403)</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>CS307 LAB
-room no. :L106+L107
-Dr. Girish GN</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-room no. :C102
-Dr. Girish GN</t>
-        </is>
-      </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="n"/>
-      <c r="O4" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-abc012
-B3-abc012: Dr. Somen (L301)</t>
-        </is>
-      </c>
-      <c r="P4" s="7" t="n"/>
-      <c r="Q4" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS471
-B1-CS471: Chinmayanand (L402)</t>
-        </is>
-      </c>
-      <c r="R4" s="6" t="n"/>
-      <c r="S4" s="7" t="n"/>
-      <c r="T4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc002, B1-abc003
-B1-abc002: Dr. Krishnendu (C202)
-B1-abc003: Prof. SRM Prasanna (C204)</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-CS462
-B3-CS462: Dr. Vivekraj V K (L304)</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="14" t="inlineStr">
+      <c r="S5" s="7" t="n"/>
+      <c r="T5" s="5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-abc002
-B1-abc002: Dr. Krishnendu (C203)</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="11" t="inlineStr"/>
-      <c r="M5" s="13" t="inlineStr">
+B1-abc002: Dr. Krishnendu (C204)</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS471, B1-abc003
+B1-CS471: Chinmayanand (L402)
+B1-abc003: Prof. SRM Prasanna (C205)</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="14" t="inlineStr">
         <is>
           <t>B2 Courses
 B2-abc006
-B2-abc006: Dr. Jagadeesha R Bhat (L401)</t>
-        </is>
-      </c>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="7" t="n"/>
-      <c r="P5" s="11" t="inlineStr"/>
-      <c r="Q5" s="14" t="inlineStr">
+B2-abc006: Dr. Jagadeesha R Bhat (L402)</t>
+        </is>
+      </c>
+      <c r="N6" s="11" t="n"/>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-abc002, B1-abc003
-B1-abc002: Dr. Krishnendu (C202)
-B1-abc003: Prof. SRM Prasanna (C204)</t>
-        </is>
-      </c>
-      <c r="R5" s="6" t="n"/>
-      <c r="S5" s="7" t="n"/>
-      <c r="T5" s="11" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc001, B1-abc003
-B1-abc001: Dr. Sunil S (L404)
+B1-CS471, B1-abc003
+B1-CS471: Chinmayanand (L402)
 B1-abc003: Prof. SRM Prasanna (C205)</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc007
-B2-abc007: Dr. Pavan (L404)</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="11" t="inlineStr"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="11" t="inlineStr"/>
-      <c r="M6" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc005, B2-abc006
-B2-abc005: Dr. Rajendra H (L304)
-B2-abc006: Dr. Jagadeesha R Bhat (L402)</t>
-        </is>
-      </c>
-      <c r="N6" s="7" t="n"/>
-      <c r="O6" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc001, B1-abc003
-B1-abc001: Dr. Sunil S (L404)
-B1-abc003: Prof. SRM Prasanna (C205)</t>
-        </is>
-      </c>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="7" t="n"/>
-      <c r="R6" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc005, B2-abc006
-B2-abc005: Dr. Rajendra H (L304)
-B2-abc006: Dr. Jagadeesha R Bhat (L402)</t>
-        </is>
-      </c>
+      <c r="R6" s="11" t="n"/>
       <c r="S6" s="7" t="n"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7031,17 +7048,17 @@
     <row r="19">
       <c r="A19" s="19" t="inlineStr">
         <is>
-          <t>B3-CS462</t>
+          <t>B2-abc008</t>
         </is>
       </c>
       <c r="B19" s="19" t="inlineStr">
         <is>
-          <t>Computer Graphics</t>
+          <t>Quantum Communication</t>
         </is>
       </c>
       <c r="C19" s="19" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj V K</t>
+          <t>Dr. Aswath B</t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
@@ -7061,17 +7078,17 @@
     <row r="20">
       <c r="A20" s="19" t="inlineStr">
         <is>
-          <t>B3-abc012</t>
+          <t>B4-abc015</t>
         </is>
       </c>
       <c r="B20" s="19" t="inlineStr">
         <is>
-          <t>Microwave Engineering</t>
+          <t>Medical Image Analysis</t>
         </is>
       </c>
       <c r="C20" s="19" t="inlineStr">
         <is>
-          <t>Dr. Somen</t>
+          <t>Dr. Girish GN</t>
         </is>
       </c>
       <c r="D20" s="19" t="inlineStr">
@@ -7121,22 +7138,22 @@
     <row r="22">
       <c r="A22" s="19" t="inlineStr">
         <is>
-          <t>B4-abc013</t>
+          <t>B2-abc009</t>
         </is>
       </c>
       <c r="B22" s="19" t="inlineStr">
         <is>
-          <t>Data Analytics and Visualization</t>
+          <t>Quantum HPC and AI</t>
         </is>
       </c>
       <c r="C22" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Manish M (Dr. Aswath)</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>TUT</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E22" s="19" t="n">
@@ -7151,17 +7168,17 @@
     <row r="23">
       <c r="A23" s="19" t="inlineStr">
         <is>
-          <t>B4-abc015</t>
+          <t>B4-abc014</t>
         </is>
       </c>
       <c r="B23" s="19" t="inlineStr">
         <is>
-          <t>Medical Image Analysis</t>
+          <t>Statistics for Health Technology</t>
         </is>
       </c>
       <c r="C23" s="19" t="inlineStr">
         <is>
-          <t>Dr. Girish GN</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="D23" s="19" t="inlineStr">
@@ -7181,17 +7198,17 @@
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
         <is>
-          <t>B4-abc014</t>
+          <t>B3-abc011</t>
         </is>
       </c>
       <c r="B24" s="19" t="inlineStr">
         <is>
-          <t>Statistics for Health Technology</t>
+          <t>Automotive Embedded and Multimedia Systems</t>
         </is>
       </c>
       <c r="C24" s="19" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
         </is>
       </c>
       <c r="D24" s="19" t="inlineStr">
@@ -7211,17 +7228,17 @@
     <row r="25">
       <c r="A25" s="19" t="inlineStr">
         <is>
-          <t>B3-abc011</t>
+          <t>B3-abc012</t>
         </is>
       </c>
       <c r="B25" s="19" t="inlineStr">
         <is>
-          <t>Automotive Embedded and Multimedia Systems</t>
+          <t>Microwave Engineering</t>
         </is>
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+          <t>Dr. Somen</t>
         </is>
       </c>
       <c r="D25" s="19" t="inlineStr">
@@ -7241,17 +7258,17 @@
     <row r="26">
       <c r="A26" s="19" t="inlineStr">
         <is>
-          <t>B4-abc013</t>
+          <t>B3-CS462</t>
         </is>
       </c>
       <c r="B26" s="19" t="inlineStr">
         <is>
-          <t>Data Analytics and Visualization</t>
+          <t>Computer Graphics</t>
         </is>
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Vivekraj V K</t>
         </is>
       </c>
       <c r="D26" s="19" t="inlineStr">
@@ -7271,17 +7288,17 @@
     <row r="27">
       <c r="A27" s="19" t="inlineStr">
         <is>
-          <t>B2-abc008</t>
+          <t>B2-abc010</t>
         </is>
       </c>
       <c r="B27" s="19" t="inlineStr">
         <is>
-          <t>Quantum Communication</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="C27" s="19" t="inlineStr">
         <is>
-          <t>Dr. Aswath B</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D27" s="19" t="inlineStr">
@@ -7301,17 +7318,17 @@
     <row r="28">
       <c r="A28" s="19" t="inlineStr">
         <is>
-          <t>B2-abc009</t>
+          <t>B4-abc013</t>
         </is>
       </c>
       <c r="B28" s="19" t="inlineStr">
         <is>
-          <t>Quantum HPC and AI</t>
+          <t>Data Analytics and Visualization</t>
         </is>
       </c>
       <c r="C28" s="19" t="inlineStr">
         <is>
-          <t>Dr. Manish M (Dr. Aswath)</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="D28" s="19" t="inlineStr">
@@ -7331,17 +7348,17 @@
     <row r="29">
       <c r="A29" s="19" t="inlineStr">
         <is>
-          <t>B2-abc010</t>
+          <t>B2-abc007</t>
         </is>
       </c>
       <c r="B29" s="19" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Model Checking</t>
         </is>
       </c>
       <c r="C29" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="D29" s="19" t="inlineStr">
@@ -7651,7 +7668,7 @@
           <t>B3-abc011</t>
         </is>
       </c>
-      <c r="B46" s="32" t="inlineStr"/>
+      <c r="B46" s="33" t="inlineStr"/>
       <c r="C46" s="22" t="inlineStr">
         <is>
           <t>Automotive Embedded and Multimedia Systems</t>
@@ -7674,7 +7691,7 @@
           <t>B3-abc012</t>
         </is>
       </c>
-      <c r="B47" s="32" t="inlineStr"/>
+      <c r="B47" s="33" t="inlineStr"/>
       <c r="C47" s="22" t="inlineStr">
         <is>
           <t>Microwave Engineering</t>
@@ -7697,7 +7714,7 @@
           <t>B3-CS462</t>
         </is>
       </c>
-      <c r="B48" s="32" t="inlineStr"/>
+      <c r="B48" s="33" t="inlineStr"/>
       <c r="C48" s="22" t="inlineStr">
         <is>
           <t>Computer Graphics</t>
@@ -7720,7 +7737,7 @@
           <t>B4-abc013</t>
         </is>
       </c>
-      <c r="B49" s="33" t="inlineStr"/>
+      <c r="B49" s="34" t="inlineStr"/>
       <c r="C49" s="22" t="inlineStr">
         <is>
           <t>Data Analytics and Visualization</t>
@@ -7743,7 +7760,7 @@
           <t>B4-abc014</t>
         </is>
       </c>
-      <c r="B50" s="33" t="inlineStr"/>
+      <c r="B50" s="34" t="inlineStr"/>
       <c r="C50" s="22" t="inlineStr">
         <is>
           <t>Statistics for Health Technology</t>
@@ -7766,7 +7783,7 @@
           <t>B4-abc015</t>
         </is>
       </c>
-      <c r="B51" s="33" t="inlineStr"/>
+      <c r="B51" s="34" t="inlineStr"/>
       <c r="C51" s="22" t="inlineStr">
         <is>
           <t>Medical Image Analysis</t>
@@ -7807,31 +7824,30 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L4:N4"/>
+  <mergeCells count="24">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7982,18 +7998,18 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr"/>
-      <c r="C2" s="11" t="inlineStr"/>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="B2" s="5" t="inlineStr"/>
+      <c r="C2" s="5" t="inlineStr"/>
+      <c r="D2" s="5" t="inlineStr"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="G2" s="11" t="inlineStr"/>
-      <c r="H2" s="11" t="inlineStr"/>
-      <c r="I2" s="11" t="inlineStr"/>
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="G2" s="5" t="inlineStr"/>
+      <c r="H2" s="5" t="inlineStr"/>
+      <c r="I2" s="5" t="inlineStr"/>
       <c r="J2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8004,15 +8020,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="11" t="inlineStr"/>
-      <c r="M2" s="11" t="inlineStr"/>
-      <c r="N2" s="11" t="inlineStr"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="11" t="inlineStr"/>
-      <c r="Q2" s="11" t="inlineStr"/>
-      <c r="R2" s="11" t="inlineStr"/>
-      <c r="S2" s="11" t="inlineStr"/>
-      <c r="T2" s="11" t="inlineStr"/>
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -8020,18 +8036,18 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr"/>
-      <c r="C3" s="11" t="inlineStr"/>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
       <c r="E3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="11" t="inlineStr"/>
-      <c r="H3" s="11" t="inlineStr"/>
-      <c r="I3" s="11" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
       <c r="J3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8042,15 +8058,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr"/>
-      <c r="M3" s="11" t="inlineStr"/>
-      <c r="N3" s="11" t="inlineStr"/>
-      <c r="O3" s="11" t="inlineStr"/>
-      <c r="P3" s="11" t="inlineStr"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="11" t="inlineStr"/>
-      <c r="S3" s="11" t="inlineStr"/>
-      <c r="T3" s="11" t="inlineStr"/>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="inlineStr"/>
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -8058,18 +8074,18 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr"/>
-      <c r="C4" s="11" t="inlineStr"/>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
       <c r="E4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="11" t="inlineStr"/>
-      <c r="H4" s="11" t="inlineStr"/>
-      <c r="I4" s="11" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
       <c r="J4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8080,15 +8096,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="11" t="inlineStr"/>
-      <c r="M4" s="11" t="inlineStr"/>
-      <c r="N4" s="11" t="inlineStr"/>
-      <c r="O4" s="11" t="inlineStr"/>
-      <c r="P4" s="11" t="inlineStr"/>
-      <c r="Q4" s="11" t="inlineStr"/>
-      <c r="R4" s="11" t="inlineStr"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -8096,18 +8112,18 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr"/>
-      <c r="C5" s="11" t="inlineStr"/>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr"/>
-      <c r="G5" s="11" t="inlineStr"/>
-      <c r="H5" s="11" t="inlineStr"/>
-      <c r="I5" s="11" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8118,15 +8134,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr"/>
-      <c r="M5" s="11" t="inlineStr"/>
-      <c r="N5" s="11" t="inlineStr"/>
-      <c r="O5" s="11" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="11" t="inlineStr"/>
-      <c r="S5" s="11" t="inlineStr"/>
-      <c r="T5" s="11" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -8134,18 +8150,18 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr"/>
-      <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr"/>
-      <c r="G6" s="11" t="inlineStr"/>
-      <c r="H6" s="11" t="inlineStr"/>
-      <c r="I6" s="11" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8156,15 +8172,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="11" t="inlineStr"/>
-      <c r="M6" s="11" t="inlineStr"/>
-      <c r="N6" s="11" t="inlineStr"/>
-      <c r="O6" s="11" t="inlineStr"/>
-      <c r="P6" s="11" t="inlineStr"/>
-      <c r="Q6" s="11" t="inlineStr"/>
-      <c r="R6" s="11" t="inlineStr"/>
-      <c r="S6" s="11" t="inlineStr"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -8413,303 +8429,309 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr"/>
-      <c r="C2" s="34" t="inlineStr">
-        <is>
-          <t>MA163 TUT
-room no. :C201
-Dr. Sibasankar Padhy</t>
-        </is>
-      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>DS164 LEC
+room no. :C104
+Dr. Siddharth R</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
       <c r="D2" s="7" t="n"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="34" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+room no. :C104
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr"/>
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="12" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C104
+Dr. Manjunath</t>
+        </is>
+      </c>
+      <c r="N2" s="11" t="n"/>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="12" t="inlineStr">
+        <is>
+          <t>CS164 LAB
+room no. :L106+L107
+Dr. Manjunath</t>
+        </is>
+      </c>
+      <c r="Q2" s="11" t="n"/>
+      <c r="R2" s="11" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+room no. :C102
+Dr. Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="36" t="inlineStr">
+        <is>
+          <t>MA163 TUT
+room no. :C104
+Dr. Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="13" t="inlineStr">
+        <is>
+          <t>CS163 LAB
+room no. :L106+L107
+Dr. Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="L3" s="11" t="n"/>
+      <c r="M3" s="11" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr. Abdul Wahid (L108)</t>
+        </is>
+      </c>
+      <c r="P3" s="11" t="n"/>
+      <c r="Q3" s="11" t="n"/>
+      <c r="R3" s="7" t="n"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="35" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+room no. :C102
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="36" t="inlineStr">
+        <is>
+          <t>MA163 LEC
+room no. :C102
+Dr. Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="12" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C102
+Dr. Manjunath</t>
+        </is>
+      </c>
+      <c r="N4" s="11" t="n"/>
+      <c r="O4" s="7" t="n"/>
+      <c r="P4" s="31" t="inlineStr">
+        <is>
+          <t>B4 Courses
+B4-NEW
+B4-NEW: Dr. Shirshendu Layek (L106)</t>
+        </is>
+      </c>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="7" t="n"/>
+      <c r="T4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="36" t="inlineStr">
         <is>
           <t>MA163 LEC
 room no. :C104
 Dr. Sibasankar Padhy</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="16" t="inlineStr">
-        <is>
-          <t>CS163 LAB
-room no. :L206+L207
-Dr. Sunil Saumya</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="10" t="inlineStr">
-        <is>
-          <t>CS164 LEC
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="37" t="inlineStr">
+        <is>
+          <t>HS161 LEC
 room no. :C104
-Dr. Manjunath</t>
-        </is>
-      </c>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7" t="n"/>
-      <c r="S2" s="11" t="inlineStr"/>
-      <c r="T2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr"/>
-      <c r="C3" s="11" t="inlineStr"/>
-      <c r="D3" s="11" t="inlineStr"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="35" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-room no. :C201
 Dr. Rajesh N S</t>
         </is>
       </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>DS164 LAB
-room no. :L206+L207
+room no. :L106+L107
 Dr. Siddharth R</t>
         </is>
       </c>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="7" t="n"/>
-      <c r="O3" s="31" t="inlineStr">
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="32" t="inlineStr">
         <is>
           <t>B3 Courses
 B3-NEW
-B3-NEW: Dr. Ashwath Babu &amp; Prof. Ravi Shankar (L108)</t>
-        </is>
-      </c>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="7" t="n"/>
-      <c r="S3" s="11" t="inlineStr"/>
-      <c r="T3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="34" t="inlineStr">
-        <is>
-          <t>MA163 LEC
-room no. :C102
-Dr. Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="35" t="inlineStr">
+B3-NEW: Dr. Ashwath Babu &amp; Prof. Ravi Shankar (L106)</t>
+        </is>
+      </c>
+      <c r="P5" s="11" t="n"/>
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="35" t="inlineStr">
+        <is>
+          <t>CS162 TUT
+room no. :C104
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="37" t="inlineStr">
         <is>
           <t>HS161 LEC
 room no. :C102
 Dr. Rajesh N S</t>
         </is>
       </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="31" t="inlineStr">
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="32" t="inlineStr">
         <is>
           <t>B3 Courses
 B3-NEW
-B3-NEW: Dr. Abdul Wahid (L106)</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="n"/>
-      <c r="O4" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-NEW
-B3-NEW: Dr. Abdul Wahid (L106)</t>
-        </is>
-      </c>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr"/>
-      <c r="C5" s="11" t="inlineStr"/>
-      <c r="D5" s="11" t="inlineStr"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="36" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-room no. :C102
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="11" t="inlineStr"/>
-      <c r="L5" s="11" t="inlineStr"/>
-      <c r="M5" s="11" t="inlineStr"/>
-      <c r="N5" s="16" t="inlineStr">
+B3-NEW: Dr Prakash Pawar (L108)</t>
+        </is>
+      </c>
+      <c r="L6" s="11" t="n"/>
+      <c r="M6" s="11" t="n"/>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="13" t="inlineStr">
         <is>
           <t>CS163 LEC
-room no. :C102
+room no. :C201
 Dr. Sunil Saumya</t>
         </is>
       </c>
-      <c r="O5" s="6" t="n"/>
-      <c r="P5" s="7" t="n"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="10" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C104
-Dr. Manjunath</t>
-        </is>
-      </c>
-      <c r="S5" s="6" t="n"/>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="36" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-room no. :C102
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C102
-Dr. Sunil Saumya</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>CS164 LAB
-room no. :L206+L207
-Dr. Manjunath</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="7" t="n"/>
-      <c r="O6" s="11" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>DS164 LEC
-room no. :C104
-Dr. Siddharth R</t>
-        </is>
-      </c>
-      <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="7" t="n"/>
-      <c r="S6" s="36" t="inlineStr">
-        <is>
-          <t>CS162 TUT
-room no. :C102
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="T6" s="7" t="n"/>
+      <c r="R6" s="11" t="n"/>
+      <c r="S6" s="7" t="n"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
@@ -8788,12 +8810,12 @@
       </c>
       <c r="B15" s="19" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Introduction to Internet of Things</t>
         </is>
       </c>
       <c r="C15" s="19" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr Jagadeesha Bhat</t>
         </is>
       </c>
       <c r="D15" s="19" t="inlineStr">
@@ -8806,7 +8828,7 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>Could not find compatible 2.0 hour timeslot for B4-NEW LAB with faculty Dr. Shirshendu Layek</t>
+          <t>Could not find compatible 2.0 hour timeslot for B4-NEW LAB with faculty Dr Jagadeesha Bhat</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8941,7 @@
           <t>B3-NEW</t>
         </is>
       </c>
-      <c r="B24" s="32" t="inlineStr"/>
+      <c r="B24" s="33" t="inlineStr"/>
       <c r="C24" s="22" t="inlineStr">
         <is>
           <t>Data Science with Python</t>
@@ -8942,7 +8964,7 @@
           <t>B4-NEW</t>
         </is>
       </c>
-      <c r="B25" s="33" t="inlineStr"/>
+      <c r="B25" s="34" t="inlineStr"/>
       <c r="C25" s="22" t="inlineStr">
         <is>
           <t>Linux for Engineers</t>
@@ -8965,7 +8987,7 @@
           <t>B4-ASD151</t>
         </is>
       </c>
-      <c r="B26" s="33" t="inlineStr"/>
+      <c r="B26" s="34" t="inlineStr"/>
       <c r="C26" s="22" t="inlineStr">
         <is>
           <t>Introduction to Design</t>
@@ -8988,7 +9010,7 @@
           <t>B4-HS151</t>
         </is>
       </c>
-      <c r="B27" s="33" t="inlineStr"/>
+      <c r="B27" s="34" t="inlineStr"/>
       <c r="C27" s="22" t="inlineStr">
         <is>
           <t>Introduction to Personal Finance</t>
@@ -9011,7 +9033,7 @@
           <t>MA163</t>
         </is>
       </c>
-      <c r="B28" s="37" t="inlineStr"/>
+      <c r="B28" s="38" t="inlineStr"/>
       <c r="C28" s="22" t="inlineStr">
         <is>
           <t>Linear Algebra</t>
@@ -9034,7 +9056,7 @@
           <t>CS162</t>
         </is>
       </c>
-      <c r="B29" s="38" t="inlineStr"/>
+      <c r="B29" s="39" t="inlineStr"/>
       <c r="C29" s="22" t="inlineStr">
         <is>
           <t>Optimization</t>
@@ -9057,7 +9079,7 @@
           <t>HS161</t>
         </is>
       </c>
-      <c r="B30" s="39" t="inlineStr"/>
+      <c r="B30" s="40" t="inlineStr"/>
       <c r="C30" s="22" t="inlineStr">
         <is>
           <t>English Language and Communication</t>
@@ -9075,26 +9097,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="N5:P5"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:R3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="S6:T6"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9244,23 +9267,29 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr"/>
-      <c r="C2" s="11" t="inlineStr"/>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>DS204 LEC
+room no. :C201
+Dr. Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="7" t="n"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="G2" s="11" t="inlineStr"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>MA202 TUT
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>MA202 LEC
 room no. :C201
 Dr. Chinmayananda</t>
         </is>
       </c>
+      <c r="H2" s="11" t="n"/>
       <c r="I2" s="7" t="n"/>
       <c r="J2" s="8" t="inlineStr">
         <is>
@@ -9272,263 +9301,257 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="12" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+room no. :C201
+Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="P2" s="11" t="n"/>
+      <c r="Q2" s="7" t="n"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>HS206 LEC
+room no. :C104
+Dr. Navyashree</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="13" t="inlineStr">
+        <is>
+          <t>DS204 LAB
+room no. :L106+L107
+Dr. Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="11" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="16" t="inlineStr">
+        <is>
+          <t>DS205 LEC
+room no. :C201
+Mr. Manmohan Singh</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="13" t="inlineStr">
+        <is>
+          <t>DS204 LEC
+room no. :C102
+Dr. Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="S3" s="11" t="n"/>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>DS205 LEC
 room no. :C104
 Mr. Manmohan Singh</t>
         </is>
       </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="11" t="inlineStr"/>
-      <c r="P2" s="10" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-room no. :C201
-Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
-        </is>
-      </c>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7" t="n"/>
-      <c r="S2" s="11" t="inlineStr"/>
-      <c r="T2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr"/>
-      <c r="C3" s="11" t="inlineStr"/>
-      <c r="D3" s="11" t="inlineStr"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="15" t="inlineStr">
-        <is>
-          <t>HS206 LEC
-room no. :C202
-Dr. Navyashree</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="11" t="inlineStr"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="11" t="inlineStr"/>
-      <c r="M3" s="11" t="inlineStr"/>
-      <c r="N3" s="11" t="inlineStr"/>
-      <c r="O3" s="10" t="inlineStr">
-        <is>
-          <t>CS310 TUT
-room no. :C102
-Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
-        </is>
-      </c>
-      <c r="P3" s="7" t="n"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="12" t="inlineStr">
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>CS204 LEC
-room no. :C102
+room no. :C104
 Dr. Manjunath KV</t>
         </is>
       </c>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr"/>
-      <c r="C4" s="11" t="inlineStr"/>
-      <c r="D4" s="11" t="inlineStr"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>MA202 LEC
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="9" t="inlineStr">
+        <is>
+          <t>CS204 LEC
 room no. :C104
-Dr. Chinmayananda</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="11" t="inlineStr"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="15" t="inlineStr">
+Dr. Manjunath KV</t>
+        </is>
+      </c>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="7" t="n"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>HS206 LEC
 room no. :C201
 Dr. Navyashree</t>
         </is>
       </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="n"/>
-      <c r="O4" s="11" t="inlineStr"/>
-      <c r="P4" s="11" t="inlineStr"/>
-      <c r="Q4" s="10" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-room no. :C201
-Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
-        </is>
-      </c>
-      <c r="R4" s="6" t="n"/>
-      <c r="S4" s="7" t="n"/>
-      <c r="T4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-room no. :C104
-Dr. Manjunath KV</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
+      <c r="C5" s="11" t="n"/>
       <c r="D5" s="7" t="n"/>
       <c r="E5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>CS310 LAB
-room no. :L106+L107
-Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="11" t="inlineStr"/>
-      <c r="M5" s="11" t="inlineStr"/>
-      <c r="N5" s="11" t="inlineStr"/>
-      <c r="O5" s="16" t="inlineStr">
-        <is>
-          <t>DS204 LEC
-room no. :C104
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="P5" s="6" t="n"/>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="12" t="inlineStr">
-        <is>
-          <t>CS204 TUT
-room no. :C201
-Dr. Manjunath KV</t>
-        </is>
-      </c>
-      <c r="S5" s="7" t="n"/>
-      <c r="T5" s="11" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>DS205 LEC
-room no. :C104
-Mr. Manmohan Singh</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr"/>
-      <c r="G6" s="16" t="inlineStr">
-        <is>
-          <t>DS204 LEC
-room no. :C104
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="16" t="inlineStr">
-        <is>
-          <t>DS204 LAB
-room no. :L306+L307
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="6" t="n"/>
-      <c r="O6" s="7" t="n"/>
-      <c r="P6" s="11" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>MA202 LEC
 room no. :C201
 Dr. Chinmayananda</t>
         </is>
       </c>
-      <c r="R6" s="6" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="9" t="inlineStr">
+        <is>
+          <t>CS204 TUT
+room no. :C202
+Dr. Manjunath KV</t>
+        </is>
+      </c>
+      <c r="P5" s="7" t="n"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="12" t="inlineStr">
+        <is>
+          <t>CS310 TUT
+room no. :C201
+Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="S5" s="7" t="n"/>
+      <c r="T5" s="5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="12" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+room no. :C104
+Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="12" t="inlineStr">
+        <is>
+          <t>CS310 LAB
+room no. :L206+L207
+Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="M6" s="11" t="n"/>
+      <c r="N6" s="11" t="n"/>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>MA202 TUT
+room no. :C202
+Dr. Chinmayananda</t>
+        </is>
+      </c>
       <c r="S6" s="7" t="n"/>
-      <c r="T6" s="11" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
@@ -9704,23 +9727,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="L6:O6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9870,348 +9893,348 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L305)
-B1-NEW: Dr. Sunil S (L303)</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="n"/>
+B1-NEW
+B1-NEW: Dr. Sunil S (L304)</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
       <c r="D2" s="7" t="n"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="16" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-NEW
+B2-NEW: Dr. Pavan (C204)</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="5" t="inlineStr"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-NEW
+B2-NEW: Dr. Sandesh P (L403)</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="n"/>
+      <c r="N2" s="12" t="inlineStr">
+        <is>
+          <t>DS309 LEC
+room no. :C202
+Dr. Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="O2" s="11" t="n"/>
+      <c r="P2" s="7" t="n"/>
+      <c r="Q2" s="13" t="inlineStr">
+        <is>
+          <t>DS306 SS
+room no. :C202
+Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="R2" s="7" t="n"/>
+      <c r="S2" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS458
+B1-CS458: Dr. Krishnendu (L403)</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464, B1-NEW
+B1-CS464: Dr. Chinmayanand (C205)
+B1-NEW: Prof. SRM Prasanna (L305)</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>DS308 LEC
+room no. :C201
+Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-NEW
+B2-NEW: Dr. Pavan (L301)</t>
+        </is>
+      </c>
+      <c r="N3" s="11" t="n"/>
+      <c r="O3" s="7" t="n"/>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464, B1-NEW
+B1-CS464: Dr. Chinmayanand (C205)
+B1-NEW: Prof. SRM Prasanna (L305)</t>
+        </is>
+      </c>
+      <c r="R3" s="11" t="n"/>
+      <c r="S3" s="7" t="n"/>
+      <c r="T3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS458, B1-CS464
+B1-CS458: Dr. Krishnendu (L402)
+B1-CS464: Dr. Chinmayanand (L404)</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>DS307 LEC
+room no. :C201
+Mr. Ram Subramanian</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-NEW
+B1-NEW: Prof. SRM Prasanna (L302)</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="n"/>
+      <c r="N4" s="6" t="inlineStr">
+        <is>
+          <t>DS307 LEC
+room no. :C202
+Mr. Ram Subramanian</t>
+        </is>
+      </c>
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="7" t="n"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS458, B1-CS464
+B1-CS458: Dr. Krishnendu (L402)
+B1-CS464: Dr. Chinmayanand (L404)</t>
+        </is>
+      </c>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>DS308 LEC
+room no. :C202
+Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>DS306 LEC
 room no. :C202
 Dr. Utkarsh Khaire</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="11" t="inlineStr"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>DS309 LEC
-room no. :C201
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="10" t="inlineStr">
-        <is>
-          <t>DS309 SS
-room no. :C202
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="P2" s="7" t="n"/>
-      <c r="Q2" s="14" t="inlineStr">
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="15" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L305)
+B1-CS458: Dr. Krishnendu (L401)
 B1-NEW: Dr. Sunil S (L303)</t>
         </is>
       </c>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="7" t="n"/>
-      <c r="T2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>DS308 LEC
-room no. :C102
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS458, B1-NEW
+B1-CS458: Dr. Krishnendu (L401)
+B1-NEW: Dr. Sunil S (L303)</t>
+        </is>
+      </c>
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="14" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-EC361
+B2-EC361: Dr. Jagadeesha R Bhat (L404)</t>
+        </is>
+      </c>
+      <c r="T5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464
+B1-CS464: Dr. Chinmayanand (L302)</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>DS306 LEC
+room no. :C201
+Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>DS308 TUT
+room no. :C101
 Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
         </is>
       </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="M6" s="7" t="n"/>
+      <c r="N6" s="12" t="inlineStr">
+        <is>
+          <t>DS309 SS
+room no. :C104
+Dr. Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="12" t="inlineStr">
         <is>
           <t>DS309 LEC
 room no. :C203
 Dr. Animesh Chaturvedi</t>
         </is>
       </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L404)
-B1-NEW: Prof. SRM Prasanna (L403)</t>
-        </is>
-      </c>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="15" t="inlineStr">
-        <is>
-          <t>DS308 TUT
-room no. :C201
-Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
-        </is>
-      </c>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L404)
-B1-NEW: Prof. SRM Prasanna (L403)</t>
-        </is>
-      </c>
-      <c r="Q3" s="7" t="n"/>
-      <c r="R3" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464
-B1-CS464: Dr. Chinmayanand (C204)</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464, B1-NEW
-B1-CS464: Dr. Chinmayanand (L402)
-B1-NEW: Prof. SRM Prasanna (C205)</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-NEW
-B2-NEW: Dr. Pavan (L304)</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464, B1-NEW
-B1-CS464: Dr. Chinmayanand (L402)
-B1-NEW: Prof. SRM Prasanna (C205)</t>
-        </is>
-      </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="n"/>
-      <c r="O4" s="11" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>DS307 LEC
-room no. :C202
+      <c r="Q6" s="11" t="n"/>
+      <c r="R6" s="7" t="n"/>
+      <c r="S6" s="6" t="inlineStr">
+        <is>
+          <t>DS307 TUT
+room no. :C203
 Mr. Ram Subramanian</t>
-        </is>
-      </c>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-NEW
-B2-NEW: Dr. Sandesh P (C204)</t>
-        </is>
-      </c>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CS455
-B2-CS455: Dr. Rajendra H (L402)</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>DS307 TUT
-room no. :C104
-Mr. Ram Subramanian</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="11" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-NEW
-B1-NEW: Dr. Sunil S (L302)</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="11" t="inlineStr"/>
-      <c r="P5" s="16" t="inlineStr">
-        <is>
-          <t>DS306 LEC
-room no. :C203
-Dr. Utkarsh Khaire</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="n"/>
-      <c r="R5" s="7" t="n"/>
-      <c r="S5" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464
-B1-CS464: Dr. Chinmayanand (C205)</t>
-        </is>
-      </c>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>DS308 LEC
-room no. :C201
-Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="14" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS458
-B1-CS458: Dr. Krishnendu (L401)</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="11" t="inlineStr"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-NEW
-B2-NEW: Dr. Pavan (L301)</t>
-        </is>
-      </c>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="7" t="n"/>
-      <c r="O6" s="11" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>DS307 LEC
-room no. :C202
-Mr. Ram Subramanian</t>
-        </is>
-      </c>
-      <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="7" t="n"/>
-      <c r="S6" s="13" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-EC361
-B2-EC361: Dr. Jagadeesha R Bhat (L404)</t>
         </is>
       </c>
       <c r="T6" s="7" t="n"/>
@@ -10686,7 +10709,7 @@
           <t>DS399</t>
         </is>
       </c>
-      <c r="B38" s="40" t="inlineStr"/>
+      <c r="B38" s="41" t="inlineStr"/>
       <c r="C38" s="22" t="inlineStr">
         <is>
           <t>Mini Project-I</t>
@@ -10705,31 +10728,31 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="P6:R6"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
